--- a/PCB/Version 1.0/Waveform Generator/assembly/BOM.xlsx
+++ b/PCB/Version 1.0/Waveform Generator/assembly/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nanodyn-my.sharepoint.com/personal/nicholas_nanodyn_co_za/Documents/Desktop/GIT repository/Waveform-generator/PCB/Waveform Generator/assembly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nanodyn-my.sharepoint.com/personal/nicholas_nanodyn_co_za/Documents/Desktop/GIT repository/Waveform-generator/PCB/Version 1.0/Waveform Generator/assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="1_{E09C17EF-A749-4AAA-B482-4A35AFF85C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EBA85F49-0DDF-418F-8DCA-060D775D5D5F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="1_{E09C17EF-A749-4AAA-B482-4A35AFF85C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7CDB1959-AF21-4D94-9091-01E5A239F9B0}"/>
   <bookViews>
-    <workbookView xWindow="-9855" yWindow="-16770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>C23733</t>
   </si>
   <si>
-    <t xml:space="preserve">C15, C16, C17, C18, C19, C31, </t>
-  </si>
-  <si>
     <t>C1525</t>
   </si>
   <si>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>STM32F429VGT6</t>
+  </si>
+  <si>
+    <t>C15, C16, C17, C18, C19, C31, R17, r22</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,12 +537,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +549,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,571 +840,571 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="11.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1">
-        <v>603</v>
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1">
-        <v>603</v>
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1206</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1">
         <v>603</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1">
-        <v>603</v>
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1">
+        <v>603</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="1">
+        <v>603</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>402</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>402</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>402</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B16" s="6">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>402</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B17" s="6">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>402</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B18" s="6">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3">
-        <v>402</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B19" s="6">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>402</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B20" s="6">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3">
-        <v>402</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B21" s="6">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>402</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
+      <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>402</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B22" s="6">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
-        <v>402</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>63</v>
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="12">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>603</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
       </c>
       <c r="C23" s="1">
         <v>402</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="6">
-        <v>13</v>
+        <v>103</v>
+      </c>
+      <c r="B24" s="13">
+        <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B25" s="5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6">
-        <v>19</v>
+        <v>103</v>
+      </c>
+      <c r="B26" s="5">
+        <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="6">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="B27" s="5">
+        <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <v>603</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="6">
-        <v>8</v>
+        <v>103</v>
+      </c>
+      <c r="B29" s="12">
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <v>603</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="6">
-        <v>35</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="13">
+        <v>23</v>
       </c>
       <c r="C30" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B31" s="5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="2">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="B32" s="4">
+        <v>27</v>
       </c>
       <c r="C32" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="7">
-        <v>10</v>
+      <c r="B33" s="4">
+        <v>37</v>
       </c>
       <c r="C33" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="6">
-        <v>21</v>
+      <c r="B34" s="11">
+        <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="6">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C35" s="1">
         <v>603</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="6">
-        <v>24</v>
+        <v>106</v>
+      </c>
+      <c r="B36" s="12">
+        <v>33</v>
       </c>
       <c r="C36" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="4">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="2">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1">
-        <v>603</v>
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1">
         <v>402</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="7">
-        <v>23</v>
+      <c r="B40" s="4">
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>402</v>
@@ -1411,8 +1417,8 @@
       <c r="A41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="6">
-        <v>25</v>
+      <c r="B41" s="5">
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>402</v>
@@ -1425,8 +1431,8 @@
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="6">
-        <v>27</v>
+      <c r="B42" s="5">
+        <v>32</v>
       </c>
       <c r="C42" s="1">
         <v>402</v>
@@ -1437,439 +1443,442 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="6">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C43" s="1">
         <v>402</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="4">
-        <v>38</v>
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C44" s="1">
         <v>402</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="2">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C45" s="1">
         <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="6">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="B46" s="11">
+        <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="6">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="B47" s="5">
+        <v>8</v>
       </c>
       <c r="C47" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="6">
-        <v>32</v>
+        <v>101</v>
+      </c>
+      <c r="B48" s="5">
+        <v>35</v>
       </c>
       <c r="C48" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="6">
-        <v>34</v>
+        <v>95</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C50" s="1">
         <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
+      </c>
+      <c r="B51" s="2">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1">
+        <v>603</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="C52" s="1">
+        <v>603</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
+      </c>
+      <c r="C53" s="1">
+        <v>402</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1206</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="C55" s="1">
+        <v>603</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>402</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="B57" s="4">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1">
+        <v>402</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="4">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1">
+        <v>402</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="B60" s="4">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
+        <v>402</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
+      </c>
+      <c r="C61" s="1">
+        <v>402</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1206</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1">
+        <v>603</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3">
+        <v>402</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3">
+        <v>402</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B66" s="4">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3">
+        <v>402</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B67" s="4">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>402</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B68" s="4">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3">
+        <v>402</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B69" s="4">
+        <v>11</v>
+      </c>
+      <c r="C69" s="3">
+        <v>402</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B70" s="4">
         <v>15</v>
       </c>
-      <c r="C63" s="1">
-        <v>1206</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C70" s="3">
+        <v>402</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B71" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C71" s="3">
+        <v>402</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B72" s="4">
         <v>17</v>
       </c>
-      <c r="C64" s="1">
-        <v>603</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C72" s="3">
+        <v>402</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B73" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="1">
-        <v>603</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="1">
-        <v>603</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="1">
-        <v>402</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="1">
-        <v>402</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="1">
-        <v>402</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="1">
-        <v>402</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="1">
-        <v>402</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="1">
-        <v>402</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="1">
-        <v>402</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>35</v>
+      <c r="C73" s="3">
+        <v>402</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
+    <sortCondition descending="1" ref="A2:A73"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
